--- a/public/dokumen/modul/20231027010443_dms_koordinat.xlsx
+++ b/public/dokumen/modul/20231027010443_dms_koordinat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\dummy data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073278CE-0BC5-4520-AE58-E72952D4B503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF00A88-8162-4A32-A0DB-4E397C80B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FA744383-5DB2-4C98-B145-77A1DE11D1E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA744383-5DB2-4C98-B145-77A1DE11D1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>Kode_Titik</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>LU</t>
-  </si>
-  <si>
-    <t>DPAA</t>
-  </si>
-  <si>
-    <t>DPAB</t>
   </si>
 </sst>
 </file>
@@ -139,9 +133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +173,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,7 +432,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +479,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>117</v>
@@ -514,7 +508,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>117</v>
